--- a/input_files/UC_case_study_58bus_network_D.xlsx
+++ b/input_files/UC_case_study_58bus_network_D.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="146">
   <si>
     <t>1,2</t>
   </si>
@@ -141,12 +141,21 @@
     <t>Brown coal LV</t>
   </si>
   <si>
+    <t>Brown coal NSA</t>
+  </si>
+  <si>
     <t>Black coal CQ</t>
   </si>
   <si>
     <t>DarkSlateGray</t>
   </si>
   <si>
+    <t>Black coal NNS</t>
+  </si>
+  <si>
+    <t>MidnightBlue</t>
+  </si>
+  <si>
     <t>Black coal CAN</t>
   </si>
   <si>
@@ -372,45 +381,30 @@
     <t>Transmission MW limits were developed to match generation and demand (they are not from any other source)</t>
   </si>
   <si>
+    <t>Max demand</t>
+  </si>
+  <si>
+    <t>Peak in each state</t>
+  </si>
+  <si>
+    <t>CSP &amp; utility storage max charge/discharge rate (MW)</t>
+  </si>
+  <si>
+    <t>Utility storage min charge/discharge rate (MW)</t>
+  </si>
+  <si>
+    <t>CSP &amp; PV solar multiple</t>
+  </si>
+  <si>
+    <t>Moccasin</t>
+  </si>
+  <si>
+    <t>SaddleBrown</t>
+  </si>
+  <si>
     <t>DarkGreen</t>
   </si>
   <si>
-    <t>Max demand</t>
-  </si>
-  <si>
-    <t>Peak in each state</t>
-  </si>
-  <si>
-    <t>LightSalmon</t>
-  </si>
-  <si>
-    <t>LightCoral</t>
-  </si>
-  <si>
-    <t>Crimson</t>
-  </si>
-  <si>
-    <t>IndianRed</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Utility storage min charge/discharge rate (MW)</t>
-  </si>
-  <si>
-    <t>CSP &amp; utility storage max charge/discharge rate (MW)</t>
-  </si>
-  <si>
-    <t>CSP &amp; PV solar multiple</t>
-  </si>
-  <si>
-    <t>Moccasin</t>
-  </si>
-  <si>
-    <t>SaddleBrown</t>
-  </si>
-  <si>
     <t>Utility PV CQ</t>
   </si>
   <si>
@@ -435,19 +429,37 @@
     <t>Rooftop PV SA</t>
   </si>
   <si>
-    <t>CST NNS</t>
-  </si>
-  <si>
-    <t>CST NSA</t>
-  </si>
-  <si>
-    <t>CST SWQ</t>
-  </si>
-  <si>
-    <t>CST NQ</t>
-  </si>
-  <si>
-    <t>CST SWNSW</t>
+    <t>Utility PV SEQ</t>
+  </si>
+  <si>
+    <t>Utility PV SWNSW</t>
+  </si>
+  <si>
+    <t>Utility PV MEL</t>
+  </si>
+  <si>
+    <t>Utility PV LV</t>
+  </si>
+  <si>
+    <t>Utility PV ADE</t>
+  </si>
+  <si>
+    <t>DarkOrange</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>SandyBrown</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Maroon</t>
   </si>
 </sst>
 </file>
@@ -567,8 +579,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="811">
+  <cellStyleXfs count="857">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1442,14 +1500,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="811">
+  <cellStyles count="857">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1855,6 +1913,29 @@
     <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2260,6 +2341,29 @@
     <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2591,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="A20:F20"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2604,7 +2708,7 @@
     <col min="5" max="5" width="27.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="3" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -2616,7 +2720,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2628,10 +2732,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2645,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" s="3">
         <v>101</v>
@@ -2669,10 +2773,10 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F3" s="3">
         <v>102</v>
@@ -2693,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F4" s="3">
         <v>201</v>
@@ -2714,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F5" s="3">
         <v>202</v>
@@ -2735,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F6" s="3">
         <v>203</v>
@@ -2756,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F7" s="3">
         <v>204</v>
@@ -2777,7 +2881,7 @@
         <v>1.609</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>29</v>
@@ -2801,10 +2905,10 @@
         <v>1.345</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F9" s="3">
         <v>206</v>
@@ -2825,7 +2929,7 @@
         <v>32.953000000000003</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>29</v>
@@ -2849,10 +2953,10 @@
         <v>1.179</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F11" s="3">
         <v>208</v>
@@ -2873,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F12" s="3">
         <v>209</v>
@@ -2894,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F13" s="3">
         <v>210</v>
@@ -2915,10 +3019,10 @@
         <v>24.69</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F14" s="3">
         <v>211</v>
@@ -2939,10 +3043,10 @@
         <v>16.22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F15" s="3">
         <v>212</v>
@@ -2966,7 +3070,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F16" s="3">
         <v>213</v>
@@ -2987,7 +3091,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F17" s="3">
         <v>214</v>
@@ -3005,10 +3109,10 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F18" s="3">
         <v>215</v>
@@ -3029,10 +3133,10 @@
         <v>10.66</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F19" s="3">
         <v>216</v>
@@ -3053,10 +3157,10 @@
         <v>10.323</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F20" s="3">
         <v>217</v>
@@ -3077,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3104,7 +3208,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F22" s="3">
         <v>302</v>
@@ -3122,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>30</v>
@@ -3143,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3164,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F25" s="3">
         <v>305</v>
@@ -3185,10 +3289,10 @@
         <v>37.71</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F26" s="3">
         <v>306</v>
@@ -3209,10 +3313,10 @@
         <v>8.85</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F27" s="3">
         <v>307</v>
@@ -3233,10 +3337,10 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F28" s="3">
         <v>308</v>
@@ -3257,7 +3361,7 @@
         <v>3.79</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>30</v>
@@ -3281,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F30" s="3">
         <v>311</v>
@@ -3305,7 +3409,7 @@
         <v>26</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F31" s="3">
         <v>312</v>
@@ -3329,7 +3433,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F32" s="3">
         <v>313</v>
@@ -3350,10 +3454,10 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F33" s="3">
         <v>314</v>
@@ -3374,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F34" s="3">
         <v>315</v>
@@ -3395,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F35" s="3">
         <v>401</v>
@@ -3422,7 +3526,7 @@
         <v>27</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F36" s="3">
         <v>402</v>
@@ -3443,7 +3547,7 @@
         <v>27</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F37" s="3">
         <v>403</v>
@@ -3464,7 +3568,7 @@
         <v>27</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F38" s="3">
         <v>404</v>
@@ -3485,7 +3589,7 @@
         <v>27</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F39" s="3">
         <v>405</v>
@@ -3509,7 +3613,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F40" s="3">
         <v>406</v>
@@ -3533,7 +3637,7 @@
         <v>27</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>407</v>
@@ -3557,7 +3661,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F42" s="3">
         <v>408</v>
@@ -3578,10 +3682,10 @@
         <v>5.78</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F43" s="3">
         <v>409</v>
@@ -3591,7 +3695,7 @@
         <v>499.6232</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="16" customHeight="1">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -3602,10 +3706,10 @@
         <v>5.77</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F44" s="3">
         <v>410</v>
@@ -3626,10 +3730,10 @@
         <v>33.979999999999997</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F45" s="3">
         <v>411</v>
@@ -3650,10 +3754,10 @@
         <v>16.75</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F46" s="3">
         <v>412</v>
@@ -3674,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>31</v>
@@ -3695,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>31</v>
@@ -3716,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>31</v>
@@ -3737,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>31</v>
@@ -3782,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>32</v>
@@ -3803,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>32</v>
@@ -3848,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>32</v>
@@ -3869,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>32</v>
@@ -3917,7 +4021,7 @@
         <v>28</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F58" s="3">
         <v>508</v>
@@ -3938,10 +4042,10 @@
         <v>9.9529999999999994</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F59" s="3">
         <v>509</v>
@@ -3966,8 +4070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3997,19 +4101,19 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -4030,7 +4134,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4072,7 +4176,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4114,7 +4218,7 @@
         <v>0.76</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4156,7 +4260,7 @@
         <v>0.437</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6833,7 +6937,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6854,13 +6958,13 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -6877,10 +6981,10 @@
         <v>0.2555</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -6897,10 +7001,10 @@
         <v>0.21110000000000001</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -6917,10 +7021,10 @@
         <v>0.36980000000000002</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
@@ -6937,10 +7041,10 @@
         <v>0.1636</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
@@ -6948,12 +7052,12 @@
     </row>
     <row r="6" spans="1:6">
       <c r="F6" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="F7" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -6969,10 +7073,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7011,55 +7115,55 @@
         <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>37</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7067,7 +7171,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C2" s="6">
         <v>21</v>
@@ -7093,7 +7197,7 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="6">
         <v>7.14</v>
       </c>
       <c r="L2" s="6">
@@ -7129,40 +7233,40 @@
         <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C3" s="6">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="6">
-        <v>4567</v>
+        <v>650</v>
       </c>
       <c r="F3" s="6">
-        <v>2116</v>
+        <v>345</v>
       </c>
       <c r="G3" s="6">
-        <v>2430</v>
+        <v>410</v>
       </c>
       <c r="H3" s="6">
-        <v>2570</v>
+        <v>410</v>
       </c>
       <c r="I3" s="6">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="22">
-        <v>25.31</v>
+      <c r="K3" s="6">
+        <v>25.61</v>
       </c>
       <c r="L3" s="6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M3" s="6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
@@ -7188,37 +7292,37 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="C4" s="6">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
       </c>
       <c r="E4" s="6">
-        <v>2880</v>
+        <v>4567</v>
       </c>
       <c r="F4" s="6">
-        <v>922</v>
+        <v>2116</v>
       </c>
       <c r="G4" s="6">
-        <v>600</v>
+        <v>2430</v>
       </c>
       <c r="H4" s="6">
-        <v>600</v>
+        <v>2570</v>
       </c>
       <c r="I4" s="6">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="22">
-        <v>29.780000000000005</v>
+      <c r="K4" s="6">
+        <v>25.31</v>
       </c>
       <c r="L4" s="6">
         <v>8</v>
@@ -7250,302 +7354,299 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3320</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1594</v>
+      </c>
+      <c r="G5" s="6">
+        <v>720</v>
+      </c>
+      <c r="H5" s="6">
+        <v>600</v>
+      </c>
+      <c r="I5" s="6">
+        <v>700</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>30.44</v>
+      </c>
+      <c r="L5" s="6">
+        <v>8</v>
+      </c>
+      <c r="M5" s="6">
+        <v>8</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="6">
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2880</v>
+      </c>
+      <c r="F6" s="6">
+        <v>922</v>
+      </c>
+      <c r="G6" s="6">
+        <v>600</v>
+      </c>
+      <c r="H6" s="6">
+        <v>600</v>
+      </c>
+      <c r="I6" s="6">
+        <v>350</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>29.780000000000005</v>
+      </c>
+      <c r="L6" s="6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="6">
+        <v>8</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6">
         <v>37</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E7" s="6">
         <f>2356-800</f>
         <v>1556</v>
       </c>
-      <c r="F5" s="21">
-        <f>0.2*E5</f>
+      <c r="F7" s="22">
+        <f>0.2*E7</f>
         <v>311.20000000000005</v>
       </c>
-      <c r="G5" s="21">
-        <f>2.92*E5</f>
+      <c r="G7" s="22">
+        <f>2.92*E7</f>
         <v>4543.5199999999995</v>
       </c>
-      <c r="H5" s="21">
-        <f>2.79*E5</f>
+      <c r="H7" s="22">
+        <f>2.79*E7</f>
         <v>4341.24</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I7" s="6">
         <v>100</v>
       </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <v>38.450000000000003</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L7" s="6">
         <v>4</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M7" s="6">
         <v>4</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="6">
         <v>52</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E8" s="6">
         <v>678</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F8" s="6">
         <v>68</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G8" s="6">
         <v>1540</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H8" s="6">
         <v>1540</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I8" s="6">
         <v>50</v>
       </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22">
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
         <v>41.85</v>
       </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="6">
         <v>5</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D9" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E9" s="6">
         <f>3231-1000</f>
         <v>2231</v>
       </c>
-      <c r="F7" s="21">
-        <f>0.1*E7</f>
+      <c r="F9" s="22">
+        <f>0.1*E9</f>
         <v>223.10000000000002</v>
       </c>
-      <c r="G7" s="21">
-        <f>0.85*E7</f>
+      <c r="G9" s="22">
+        <f>0.85*E9</f>
         <v>1896.35</v>
       </c>
-      <c r="H7" s="21">
-        <f>0.99*E7</f>
+      <c r="H9" s="22">
+        <f>0.99*E9</f>
         <v>2208.69</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I9" s="6">
         <v>50</v>
       </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22">
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
         <v>47.62</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L9" s="6">
         <v>4</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M9" s="6">
         <v>4</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
-        <v>0</v>
-      </c>
-      <c r="T7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="6">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="6">
-        <f>0.1*E8</f>
-        <v>100</v>
-      </c>
-      <c r="G8" s="6">
-        <f>0.8*E8</f>
-        <v>800</v>
-      </c>
-      <c r="H8" s="6">
-        <f>0.8*E8</f>
-        <v>800</v>
-      </c>
-      <c r="I8" s="6">
-        <v>90</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22">
-        <v>54.13</v>
-      </c>
-      <c r="L8" s="6">
-        <v>4</v>
-      </c>
-      <c r="M8" s="6">
-        <v>4</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="6">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2362</v>
-      </c>
-      <c r="F9" s="6">
-        <v>236</v>
-      </c>
-      <c r="G9" s="6">
-        <v>34715</v>
-      </c>
-      <c r="H9" s="6">
-        <v>13335</v>
-      </c>
-      <c r="I9" s="6">
-        <v>700</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="22">
-        <v>86.34</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1</v>
       </c>
       <c r="N9" s="6">
         <v>0</v>
@@ -7571,43 +7672,46 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C10" s="6">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="6">
+        <f>0.1*E10</f>
+        <v>100</v>
+      </c>
+      <c r="G10" s="6">
+        <f>0.8*E10</f>
+        <v>800</v>
+      </c>
+      <c r="H10" s="6">
+        <f>0.8*E10</f>
+        <v>800</v>
+      </c>
+      <c r="I10" s="6">
+        <v>90</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>54.13</v>
+      </c>
+      <c r="L10" s="6">
         <v>4</v>
       </c>
-      <c r="E10" s="6">
-        <v>3479</v>
-      </c>
-      <c r="F10" s="6">
-        <v>348</v>
-      </c>
-      <c r="G10" s="6">
-        <v>7380</v>
-      </c>
-      <c r="H10" s="6">
-        <v>7410</v>
-      </c>
-      <c r="I10" s="6">
-        <v>400</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="22">
-        <v>90.51</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
       <c r="M10" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" s="6">
         <v>0</v>
@@ -7633,43 +7737,43 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="C11" s="6">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6">
         <v>4</v>
       </c>
       <c r="E11" s="6">
-        <v>2131</v>
+        <v>2362</v>
       </c>
       <c r="F11" s="6">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="G11" s="6">
-        <v>15790</v>
+        <v>34715</v>
       </c>
       <c r="H11" s="6">
-        <v>14600</v>
+        <v>13335</v>
       </c>
       <c r="I11" s="6">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
       </c>
-      <c r="K11" s="22">
-        <v>93.95</v>
+      <c r="K11" s="6">
+        <v>86.34</v>
       </c>
       <c r="L11" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" s="6">
         <v>0</v>
@@ -7695,37 +7799,37 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="C12" s="6">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6">
         <v>4</v>
       </c>
       <c r="E12" s="6">
-        <v>3700</v>
+        <v>3479</v>
       </c>
       <c r="F12" s="6">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="G12" s="6">
-        <v>5520</v>
+        <v>7380</v>
       </c>
       <c r="H12" s="6">
-        <v>5520</v>
+        <v>7410</v>
       </c>
       <c r="I12" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
       </c>
-      <c r="K12" s="22">
-        <v>97.97</v>
+      <c r="K12" s="6">
+        <v>90.51</v>
       </c>
       <c r="L12" s="6">
         <v>1</v>
@@ -7757,43 +7861,43 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="C13" s="6">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="6">
-        <v>2552</v>
+        <v>2131</v>
       </c>
       <c r="F13" s="6">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="G13" s="6">
-        <v>2552</v>
+        <v>15790</v>
       </c>
       <c r="H13" s="6">
-        <v>2552</v>
+        <v>14600</v>
       </c>
       <c r="I13" s="6">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J13" s="6">
         <v>0</v>
       </c>
-      <c r="K13" s="22">
-        <v>3.86</v>
+      <c r="K13" s="6">
+        <v>93.95</v>
       </c>
       <c r="L13" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" s="6">
         <v>0</v>
@@ -7819,43 +7923,43 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="6" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="C14" s="6">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D14" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" s="6">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="F14" s="6">
-        <v>10</v>
+        <v>370</v>
       </c>
       <c r="G14" s="6">
-        <v>1000</v>
+        <v>5520</v>
       </c>
       <c r="H14" s="6">
-        <v>1000</v>
+        <v>5520</v>
       </c>
       <c r="I14" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14" s="22">
-        <v>2</v>
+      <c r="K14" s="6">
+        <v>97.97</v>
       </c>
       <c r="L14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="6">
         <v>0</v>
@@ -7876,33 +7980,33 @@
         <v>0</v>
       </c>
       <c r="T14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="6" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C15" s="6">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6">
         <v>7</v>
       </c>
       <c r="E15" s="6">
-        <v>1000</v>
+        <v>2552</v>
       </c>
       <c r="F15" s="6">
         <v>10</v>
       </c>
       <c r="G15" s="6">
-        <v>1000</v>
+        <v>2552</v>
       </c>
       <c r="H15" s="6">
-        <v>1000</v>
+        <v>2552</v>
       </c>
       <c r="I15" s="6">
         <v>0</v>
@@ -7910,8 +8014,8 @@
       <c r="J15" s="6">
         <v>0</v>
       </c>
-      <c r="K15" s="22">
-        <v>2.5</v>
+      <c r="K15" s="6">
+        <v>3.86</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -7938,36 +8042,35 @@
         <v>0</v>
       </c>
       <c r="T15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C16" s="6">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E16" s="6">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F16" s="6">
-        <f>0.15*E16</f>
-        <v>375</v>
+        <v>10</v>
       </c>
       <c r="G16" s="6">
-        <f>0.7*E16</f>
-        <v>1750</v>
+        <f>'Generator data'!E16</f>
+        <v>1500</v>
       </c>
       <c r="H16" s="6">
         <f>G16</f>
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="I16" s="6">
         <v>0</v>
@@ -7975,8 +8078,8 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
-      <c r="K16" s="22">
-        <v>5.7</v>
+      <c r="K16" s="6">
+        <v>2</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -7985,12 +8088,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="6">
-        <f>6*E16</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="O16" s="6">
-        <f>T16*E16</f>
-        <v>5750</v>
+        <v>0</v>
       </c>
       <c r="P16" s="6">
         <v>0</v>
@@ -8005,36 +8106,35 @@
         <v>0</v>
       </c>
       <c r="T16" s="6">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="6" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C17" s="6">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D17" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E17" s="6">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" ref="F17:F20" si="0">0.15*E17</f>
-        <v>375</v>
+        <v>10</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" ref="G17:G20" si="1">0.7*E17</f>
-        <v>1750</v>
+        <f>'Generator data'!E17</f>
+        <v>1500</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" ref="H17:H20" si="2">G17</f>
-        <v>1750</v>
+        <f>G17</f>
+        <v>1500</v>
       </c>
       <c r="I17" s="6">
         <v>0</v>
@@ -8042,8 +8142,8 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
-      <c r="K17" s="22">
-        <v>5.7</v>
+      <c r="K17" s="6">
+        <v>2.5</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -8052,12 +8152,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" ref="N17:N20" si="3">6*E17</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" ref="O17:O20" si="4">T17*E17</f>
-        <v>5750</v>
+        <v>0</v>
       </c>
       <c r="P17" s="6">
         <v>0</v>
@@ -8072,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="6">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -8080,28 +8178,27 @@
         <v>139</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C18" s="6">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D18" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18" s="6">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="0"/>
-        <v>375</v>
+        <v>10</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
+        <f>'Generator data'!E18</f>
+        <v>1500</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="2"/>
-        <v>1750</v>
+        <f>G18</f>
+        <v>1500</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
@@ -8109,8 +8206,8 @@
       <c r="J18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="22">
-        <v>5.7</v>
+      <c r="K18" s="6">
+        <v>1.5</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -8119,12 +8216,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" si="4"/>
-        <v>5750</v>
+        <v>0</v>
       </c>
       <c r="P18" s="6">
         <v>0</v>
@@ -8139,36 +8234,35 @@
         <v>0</v>
       </c>
       <c r="T18" s="6">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C19" s="6">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D19" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E19" s="6">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>375</v>
+        <v>10</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
+        <f>'Generator data'!E19</f>
+        <v>1000</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="2"/>
-        <v>1750</v>
+        <f>G19</f>
+        <v>1000</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
@@ -8176,8 +8270,8 @@
       <c r="J19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="22">
-        <v>5.7</v>
+      <c r="K19" s="6">
+        <v>1.5</v>
       </c>
       <c r="L19" s="6">
         <v>0</v>
@@ -8186,12 +8280,10 @@
         <v>0</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" si="4"/>
-        <v>5750</v>
+        <v>0</v>
       </c>
       <c r="P19" s="6">
         <v>0</v>
@@ -8206,36 +8298,35 @@
         <v>0</v>
       </c>
       <c r="T19" s="6">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C20" s="6">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D20" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20" s="6">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="0"/>
-        <v>375</v>
+        <v>10</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
+        <f>'Generator data'!E20</f>
+        <v>2000</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="2"/>
-        <v>1750</v>
+        <f>G20</f>
+        <v>2000</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
@@ -8243,8 +8334,8 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="22">
-        <v>5.7</v>
+      <c r="K20" s="6">
+        <v>1.5</v>
       </c>
       <c r="L20" s="6">
         <v>0</v>
@@ -8253,12 +8344,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="4"/>
-        <v>5750</v>
+        <v>0</v>
       </c>
       <c r="P20" s="6">
         <v>0</v>
@@ -8273,8 +8362,196 @@
         <v>0</v>
       </c>
       <c r="T20" s="6">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="6">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6">
+        <v>8</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10</v>
+      </c>
+      <c r="G21" s="6">
+        <f>'Generator data'!E21</f>
+        <v>2000</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21</f>
+        <v>2000</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="6">
+        <v>25</v>
+      </c>
+      <c r="D22" s="6">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>10</v>
+      </c>
+      <c r="G22" s="6">
+        <f>'Generator data'!E22</f>
+        <v>2000</v>
+      </c>
+      <c r="H22" s="6">
+        <f>G22</f>
+        <v>2000</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0</v>
+      </c>
+      <c r="T22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="6:8">
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="6:8">
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="6:8">
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="6:8">
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="6:8">
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input_files/UC_case_study_58bus_network_D.xlsx
+++ b/input_files/UC_case_study_58bus_network_D.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="142">
   <si>
     <t>1,2</t>
   </si>
@@ -141,21 +141,12 @@
     <t>Brown coal LV</t>
   </si>
   <si>
-    <t>Brown coal NSA</t>
-  </si>
-  <si>
     <t>Black coal CQ</t>
   </si>
   <si>
     <t>DarkSlateGray</t>
   </si>
   <si>
-    <t>Black coal NNS</t>
-  </si>
-  <si>
-    <t>MidnightBlue</t>
-  </si>
-  <si>
     <t>Black coal CAN</t>
   </si>
   <si>
@@ -381,18 +372,36 @@
     <t>Transmission MW limits were developed to match generation and demand (they are not from any other source)</t>
   </si>
   <si>
+    <t>DarkGreen</t>
+  </si>
+  <si>
     <t>Max demand</t>
   </si>
   <si>
     <t>Peak in each state</t>
   </si>
   <si>
+    <t>LightSalmon</t>
+  </si>
+  <si>
+    <t>LightCoral</t>
+  </si>
+  <si>
+    <t>Crimson</t>
+  </si>
+  <si>
+    <t>IndianRed</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Utility storage min charge/discharge rate (MW)</t>
+  </si>
+  <si>
     <t>CSP &amp; utility storage max charge/discharge rate (MW)</t>
   </si>
   <si>
-    <t>Utility storage min charge/discharge rate (MW)</t>
-  </si>
-  <si>
     <t>CSP &amp; PV solar multiple</t>
   </si>
   <si>
@@ -402,18 +411,12 @@
     <t>SaddleBrown</t>
   </si>
   <si>
-    <t>DarkGreen</t>
-  </si>
-  <si>
     <t>Utility PV CQ</t>
   </si>
   <si>
     <t>Utility PV CAN</t>
   </si>
   <si>
-    <t>Orange</t>
-  </si>
-  <si>
     <t>OrangeRed</t>
   </si>
   <si>
@@ -429,37 +432,22 @@
     <t>Rooftop PV SA</t>
   </si>
   <si>
-    <t>Utility PV SEQ</t>
-  </si>
-  <si>
-    <t>Utility PV SWNSW</t>
-  </si>
-  <si>
-    <t>Utility PV MEL</t>
-  </si>
-  <si>
-    <t>Utility PV LV</t>
-  </si>
-  <si>
-    <t>Utility PV ADE</t>
-  </si>
-  <si>
-    <t>DarkOrange</t>
-  </si>
-  <si>
-    <t>Coral</t>
+    <t>CST NNS</t>
+  </si>
+  <si>
+    <t>CST NSA</t>
+  </si>
+  <si>
+    <t>CST SWQ</t>
+  </si>
+  <si>
+    <t>CST NQ</t>
+  </si>
+  <si>
+    <t>CST SWNSW</t>
   </si>
   <si>
     <t>Tomato</t>
-  </si>
-  <si>
-    <t>SandyBrown</t>
-  </si>
-  <si>
-    <t>Chocolate</t>
-  </si>
-  <si>
-    <t>Maroon</t>
   </si>
 </sst>
 </file>
@@ -579,54 +567,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="857">
+  <cellStyleXfs count="811">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1500,14 +1442,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="857">
+  <cellStyles count="811">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1913,29 +1855,6 @@
     <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2341,29 +2260,6 @@
     <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2695,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="A20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2708,7 +2604,7 @@
     <col min="5" max="5" width="27.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -2720,7 +2616,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2732,10 +2628,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2749,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F2" s="3">
         <v>101</v>
@@ -2773,10 +2669,10 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F3" s="3">
         <v>102</v>
@@ -2797,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3">
         <v>201</v>
@@ -2818,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F5" s="3">
         <v>202</v>
@@ -2839,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F6" s="3">
         <v>203</v>
@@ -2860,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F7" s="3">
         <v>204</v>
@@ -2881,7 +2777,7 @@
         <v>1.609</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>29</v>
@@ -2905,10 +2801,10 @@
         <v>1.345</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F9" s="3">
         <v>206</v>
@@ -2929,7 +2825,7 @@
         <v>32.953000000000003</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>29</v>
@@ -2953,10 +2849,10 @@
         <v>1.179</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F11" s="3">
         <v>208</v>
@@ -2977,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F12" s="3">
         <v>209</v>
@@ -2998,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F13" s="3">
         <v>210</v>
@@ -3019,10 +2915,10 @@
         <v>24.69</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F14" s="3">
         <v>211</v>
@@ -3043,10 +2939,10 @@
         <v>16.22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F15" s="3">
         <v>212</v>
@@ -3070,7 +2966,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F16" s="3">
         <v>213</v>
@@ -3091,7 +2987,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F17" s="3">
         <v>214</v>
@@ -3109,10 +3005,10 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F18" s="3">
         <v>215</v>
@@ -3133,10 +3029,10 @@
         <v>10.66</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F19" s="3">
         <v>216</v>
@@ -3157,10 +3053,10 @@
         <v>10.323</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F20" s="3">
         <v>217</v>
@@ -3181,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3208,7 +3104,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F22" s="3">
         <v>302</v>
@@ -3226,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>30</v>
@@ -3247,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3268,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F25" s="3">
         <v>305</v>
@@ -3289,10 +3185,10 @@
         <v>37.71</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F26" s="3">
         <v>306</v>
@@ -3313,10 +3209,10 @@
         <v>8.85</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F27" s="3">
         <v>307</v>
@@ -3337,10 +3233,10 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F28" s="3">
         <v>308</v>
@@ -3361,7 +3257,7 @@
         <v>3.79</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>30</v>
@@ -3385,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F30" s="3">
         <v>311</v>
@@ -3409,7 +3305,7 @@
         <v>26</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F31" s="3">
         <v>312</v>
@@ -3433,7 +3329,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F32" s="3">
         <v>313</v>
@@ -3454,10 +3350,10 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F33" s="3">
         <v>314</v>
@@ -3478,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F34" s="3">
         <v>315</v>
@@ -3499,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F35" s="3">
         <v>401</v>
@@ -3526,7 +3422,7 @@
         <v>27</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F36" s="3">
         <v>402</v>
@@ -3547,7 +3443,7 @@
         <v>27</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F37" s="3">
         <v>403</v>
@@ -3568,7 +3464,7 @@
         <v>27</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F38" s="3">
         <v>404</v>
@@ -3589,7 +3485,7 @@
         <v>27</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F39" s="3">
         <v>405</v>
@@ -3613,7 +3509,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F40" s="3">
         <v>406</v>
@@ -3637,7 +3533,7 @@
         <v>27</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F41" s="3">
         <v>407</v>
@@ -3661,7 +3557,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F42" s="3">
         <v>408</v>
@@ -3682,10 +3578,10 @@
         <v>5.78</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F43" s="3">
         <v>409</v>
@@ -3695,7 +3591,7 @@
         <v>499.6232</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16" customHeight="1">
+    <row r="44" spans="1:8">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -3706,10 +3602,10 @@
         <v>5.77</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F44" s="3">
         <v>410</v>
@@ -3730,10 +3626,10 @@
         <v>33.979999999999997</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F45" s="3">
         <v>411</v>
@@ -3754,10 +3650,10 @@
         <v>16.75</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F46" s="3">
         <v>412</v>
@@ -3778,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>31</v>
@@ -3799,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>31</v>
@@ -3820,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>31</v>
@@ -3841,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>31</v>
@@ -3886,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>32</v>
@@ -3907,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>32</v>
@@ -3952,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>32</v>
@@ -3973,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>32</v>
@@ -4021,7 +3917,7 @@
         <v>28</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F58" s="3">
         <v>508</v>
@@ -4042,10 +3938,10 @@
         <v>9.9529999999999994</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F59" s="3">
         <v>509</v>
@@ -4070,8 +3966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4101,19 +3997,19 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -4134,7 +4030,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4176,7 +4072,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4218,7 +4114,7 @@
         <v>0.76</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4260,7 +4156,7 @@
         <v>0.437</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6937,7 +6833,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6958,13 +6854,13 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -6981,10 +6877,10 @@
         <v>0.2555</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -7001,10 +6897,10 @@
         <v>0.21110000000000001</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -7021,10 +6917,10 @@
         <v>0.36980000000000002</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
@@ -7041,10 +6937,10 @@
         <v>0.1636</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
@@ -7052,12 +6948,12 @@
     </row>
     <row r="6" spans="1:6">
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="F7" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7073,10 +6969,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7115,55 +7011,55 @@
         <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>37</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="S1" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7171,7 +7067,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" s="6">
         <v>21</v>
@@ -7197,7 +7093,7 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="22">
         <v>7.14</v>
       </c>
       <c r="L2" s="6">
@@ -7233,40 +7129,40 @@
         <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="6">
-        <v>650</v>
+        <v>4567</v>
       </c>
       <c r="F3" s="6">
-        <v>345</v>
+        <v>2116</v>
       </c>
       <c r="G3" s="6">
-        <v>410</v>
+        <v>2430</v>
       </c>
       <c r="H3" s="6">
-        <v>410</v>
+        <v>2570</v>
       </c>
       <c r="I3" s="6">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="6">
-        <v>25.61</v>
+      <c r="K3" s="22">
+        <v>25.31</v>
       </c>
       <c r="L3" s="6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M3" s="6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
@@ -7292,37 +7188,37 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
       </c>
       <c r="E4" s="6">
-        <v>4567</v>
+        <v>2880</v>
       </c>
       <c r="F4" s="6">
-        <v>2116</v>
+        <v>922</v>
       </c>
       <c r="G4" s="6">
-        <v>2430</v>
+        <v>600</v>
       </c>
       <c r="H4" s="6">
-        <v>2570</v>
+        <v>600</v>
       </c>
       <c r="I4" s="6">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="6">
-        <v>25.31</v>
+      <c r="K4" s="22">
+        <v>29.780000000000005</v>
       </c>
       <c r="L4" s="6">
         <v>8</v>
@@ -7354,43 +7250,47 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
       <c r="E5" s="6">
-        <v>3320</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1594</v>
-      </c>
-      <c r="G5" s="6">
-        <v>720</v>
-      </c>
-      <c r="H5" s="6">
-        <v>600</v>
+        <f>2356-800</f>
+        <v>1556</v>
+      </c>
+      <c r="F5" s="21">
+        <f>0.2*E5</f>
+        <v>311.20000000000005</v>
+      </c>
+      <c r="G5" s="21">
+        <f>2.92*E5</f>
+        <v>4543.5199999999995</v>
+      </c>
+      <c r="H5" s="21">
+        <f>2.79*E5</f>
+        <v>4341.24</v>
       </c>
       <c r="I5" s="6">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="6">
-        <v>30.44</v>
+      <c r="K5" s="22">
+        <v>38.450000000000003</v>
       </c>
       <c r="L5" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M5" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N5" s="6">
         <v>0</v>
@@ -7416,43 +7316,43 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="6">
-        <v>2880</v>
+        <v>678</v>
       </c>
       <c r="F6" s="6">
-        <v>922</v>
+        <v>68</v>
       </c>
       <c r="G6" s="6">
-        <v>600</v>
+        <v>1540</v>
       </c>
       <c r="H6" s="6">
-        <v>600</v>
+        <v>1540</v>
       </c>
       <c r="I6" s="6">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="6">
-        <v>29.780000000000005</v>
+      <c r="K6" s="22">
+        <v>41.85</v>
       </c>
       <c r="L6" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N6" s="6">
         <v>0</v>
@@ -7478,41 +7378,41 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="6">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
       </c>
       <c r="E7" s="6">
-        <f>2356-800</f>
-        <v>1556</v>
-      </c>
-      <c r="F7" s="22">
-        <f>0.2*E7</f>
-        <v>311.20000000000005</v>
-      </c>
-      <c r="G7" s="22">
-        <f>2.92*E7</f>
-        <v>4543.5199999999995</v>
-      </c>
-      <c r="H7" s="22">
-        <f>2.79*E7</f>
-        <v>4341.24</v>
+        <f>3231-1000</f>
+        <v>2231</v>
+      </c>
+      <c r="F7" s="21">
+        <f>0.1*E7</f>
+        <v>223.10000000000002</v>
+      </c>
+      <c r="G7" s="21">
+        <f>0.85*E7</f>
+        <v>1896.35</v>
+      </c>
+      <c r="H7" s="21">
+        <f>0.99*E7</f>
+        <v>2208.69</v>
       </c>
       <c r="I7" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="6">
-        <v>38.450000000000003</v>
+      <c r="K7" s="22">
+        <v>47.62</v>
       </c>
       <c r="L7" s="6">
         <v>4</v>
@@ -7544,43 +7444,46 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="6" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C8" s="6">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
       </c>
       <c r="E8" s="6">
-        <v>678</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="6">
-        <v>68</v>
+        <f>0.1*E8</f>
+        <v>100</v>
       </c>
       <c r="G8" s="6">
-        <v>1540</v>
+        <f>0.8*E8</f>
+        <v>800</v>
       </c>
       <c r="H8" s="6">
-        <v>1540</v>
+        <f>0.8*E8</f>
+        <v>800</v>
       </c>
       <c r="I8" s="6">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
       </c>
-      <c r="K8" s="6">
-        <v>41.85</v>
+      <c r="K8" s="22">
+        <v>54.13</v>
       </c>
       <c r="L8" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" s="6">
         <v>0</v>
@@ -7606,47 +7509,43 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="C9" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="6">
-        <f>3231-1000</f>
-        <v>2231</v>
-      </c>
-      <c r="F9" s="22">
-        <f>0.1*E9</f>
-        <v>223.10000000000002</v>
-      </c>
-      <c r="G9" s="22">
-        <f>0.85*E9</f>
-        <v>1896.35</v>
-      </c>
-      <c r="H9" s="22">
-        <f>0.99*E9</f>
-        <v>2208.69</v>
+        <v>2362</v>
+      </c>
+      <c r="F9" s="6">
+        <v>236</v>
+      </c>
+      <c r="G9" s="6">
+        <v>34715</v>
+      </c>
+      <c r="H9" s="6">
+        <v>13335</v>
       </c>
       <c r="I9" s="6">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9" s="6">
-        <v>47.62</v>
+      <c r="K9" s="22">
+        <v>86.34</v>
       </c>
       <c r="L9" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M9" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" s="6">
         <v>0</v>
@@ -7672,46 +7571,43 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="6" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="C10" s="6">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="6">
-        <v>1000</v>
+        <v>3479</v>
       </c>
       <c r="F10" s="6">
-        <f>0.1*E10</f>
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="G10" s="6">
-        <f>0.8*E10</f>
-        <v>800</v>
+        <v>7380</v>
       </c>
       <c r="H10" s="6">
-        <f>0.8*E10</f>
-        <v>800</v>
+        <v>7410</v>
       </c>
       <c r="I10" s="6">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
       </c>
-      <c r="K10" s="6">
-        <v>54.13</v>
+      <c r="K10" s="22">
+        <v>90.51</v>
       </c>
       <c r="L10" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M10" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" s="6">
         <v>0</v>
@@ -7737,43 +7633,43 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D11" s="6">
         <v>4</v>
       </c>
       <c r="E11" s="6">
-        <v>2362</v>
+        <v>2131</v>
       </c>
       <c r="F11" s="6">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="G11" s="6">
-        <v>34715</v>
+        <v>15790</v>
       </c>
       <c r="H11" s="6">
-        <v>13335</v>
+        <v>14600</v>
       </c>
       <c r="I11" s="6">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
       </c>
-      <c r="K11" s="6">
-        <v>86.34</v>
+      <c r="K11" s="22">
+        <v>93.95</v>
       </c>
       <c r="L11" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M11" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" s="6">
         <v>0</v>
@@ -7799,37 +7695,37 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="6">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D12" s="6">
         <v>4</v>
       </c>
       <c r="E12" s="6">
-        <v>3479</v>
+        <v>3700</v>
       </c>
       <c r="F12" s="6">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="G12" s="6">
-        <v>7380</v>
+        <v>5520</v>
       </c>
       <c r="H12" s="6">
-        <v>7410</v>
+        <v>5520</v>
       </c>
       <c r="I12" s="6">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
       </c>
-      <c r="K12" s="6">
-        <v>90.51</v>
+      <c r="K12" s="22">
+        <v>97.97</v>
       </c>
       <c r="L12" s="6">
         <v>1</v>
@@ -7861,43 +7757,43 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C13" s="6">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" s="6">
-        <v>2131</v>
+        <v>2552</v>
       </c>
       <c r="F13" s="6">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="G13" s="6">
-        <v>15790</v>
+        <v>2552</v>
       </c>
       <c r="H13" s="6">
-        <v>14600</v>
+        <v>2552</v>
       </c>
       <c r="I13" s="6">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J13" s="6">
         <v>0</v>
       </c>
-      <c r="K13" s="6">
-        <v>93.95</v>
+      <c r="K13" s="22">
+        <v>3.86</v>
       </c>
       <c r="L13" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M13" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N13" s="6">
         <v>0</v>
@@ -7923,43 +7819,43 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="6" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C14" s="6">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14" s="6">
-        <v>3700</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="6">
-        <v>370</v>
+        <v>10</v>
       </c>
       <c r="G14" s="6">
-        <v>5520</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="6">
-        <v>5520</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14" s="6">
-        <v>97.97</v>
+      <c r="K14" s="22">
+        <v>2</v>
       </c>
       <c r="L14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="6">
         <v>0</v>
@@ -7980,33 +7876,33 @@
         <v>0</v>
       </c>
       <c r="T14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="6" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C15" s="6">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D15" s="6">
         <v>7</v>
       </c>
       <c r="E15" s="6">
-        <v>2552</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="6">
         <v>10</v>
       </c>
       <c r="G15" s="6">
-        <v>2552</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="6">
-        <v>2552</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="6">
         <v>0</v>
@@ -8014,8 +7910,8 @@
       <c r="J15" s="6">
         <v>0</v>
       </c>
-      <c r="K15" s="6">
-        <v>3.86</v>
+      <c r="K15" s="22">
+        <v>2.5</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -8042,35 +7938,36 @@
         <v>0</v>
       </c>
       <c r="T15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C16" s="6">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D16" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F16" s="6">
-        <v>10</v>
+        <f>0.15*E16</f>
+        <v>450</v>
       </c>
       <c r="G16" s="6">
-        <f>'Generator data'!E16</f>
-        <v>1500</v>
+        <f>0.7*E16</f>
+        <v>2100</v>
       </c>
       <c r="H16" s="6">
         <f>G16</f>
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="I16" s="6">
         <v>0</v>
@@ -8078,8 +7975,8 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
-      <c r="K16" s="6">
-        <v>2</v>
+      <c r="K16" s="22">
+        <v>5.7</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -8088,10 +7985,12 @@
         <v>0</v>
       </c>
       <c r="N16" s="6">
-        <v>0</v>
+        <f>6*E16</f>
+        <v>18000</v>
       </c>
       <c r="O16" s="6">
-        <v>0</v>
+        <f>T16*E16</f>
+        <v>6899.9999999999991</v>
       </c>
       <c r="P16" s="6">
         <v>0</v>
@@ -8106,35 +8005,36 @@
         <v>0</v>
       </c>
       <c r="T16" s="6">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C17" s="6">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E17" s="6">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F17" s="6">
-        <v>10</v>
+        <f t="shared" ref="F17:F20" si="0">0.15*E17</f>
+        <v>375</v>
       </c>
       <c r="G17" s="6">
-        <f>'Generator data'!E17</f>
-        <v>1500</v>
+        <f t="shared" ref="G17:G20" si="1">0.7*E17</f>
+        <v>1750</v>
       </c>
       <c r="H17" s="6">
-        <f>G17</f>
-        <v>1500</v>
+        <f t="shared" ref="H17:H20" si="2">G17</f>
+        <v>1750</v>
       </c>
       <c r="I17" s="6">
         <v>0</v>
@@ -8142,8 +8042,8 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
-      <c r="K17" s="6">
-        <v>2.5</v>
+      <c r="K17" s="22">
+        <v>5.7</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -8152,10 +8052,12 @@
         <v>0</v>
       </c>
       <c r="N17" s="6">
-        <v>0</v>
+        <f t="shared" ref="N17:N20" si="3">6*E17</f>
+        <v>15000</v>
       </c>
       <c r="O17" s="6">
-        <v>0</v>
+        <f t="shared" ref="O17:O20" si="4">T17*E17</f>
+        <v>5750</v>
       </c>
       <c r="P17" s="6">
         <v>0</v>
@@ -8170,35 +8072,36 @@
         <v>0</v>
       </c>
       <c r="T17" s="6">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C18" s="6">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D18" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E18" s="6">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F18" s="6">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>450</v>
       </c>
       <c r="G18" s="6">
-        <f>'Generator data'!E18</f>
-        <v>1500</v>
+        <f t="shared" si="1"/>
+        <v>2100</v>
       </c>
       <c r="H18" s="6">
-        <f>G18</f>
-        <v>1500</v>
+        <f t="shared" si="2"/>
+        <v>2100</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
@@ -8206,8 +8109,8 @@
       <c r="J18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="6">
-        <v>1.5</v>
+      <c r="K18" s="22">
+        <v>5.7</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -8216,10 +8119,12 @@
         <v>0</v>
       </c>
       <c r="N18" s="6">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>18000</v>
       </c>
       <c r="O18" s="6">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>6899.9999999999991</v>
       </c>
       <c r="P18" s="6">
         <v>0</v>
@@ -8234,35 +8139,36 @@
         <v>0</v>
       </c>
       <c r="T18" s="6">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C19" s="6">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D19" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E19" s="6">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="F19" s="6">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>375</v>
       </c>
       <c r="G19" s="6">
-        <f>'Generator data'!E19</f>
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>1750</v>
       </c>
       <c r="H19" s="6">
-        <f>G19</f>
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>1750</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
@@ -8270,8 +8176,8 @@
       <c r="J19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="6">
-        <v>1.5</v>
+      <c r="K19" s="22">
+        <v>5.7</v>
       </c>
       <c r="L19" s="6">
         <v>0</v>
@@ -8280,10 +8186,12 @@
         <v>0</v>
       </c>
       <c r="N19" s="6">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>15000</v>
       </c>
       <c r="O19" s="6">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5750</v>
       </c>
       <c r="P19" s="6">
         <v>0</v>
@@ -8298,35 +8206,36 @@
         <v>0</v>
       </c>
       <c r="T19" s="6">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C20" s="6">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D20" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E20" s="6">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="F20" s="6">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>375</v>
       </c>
       <c r="G20" s="6">
-        <f>'Generator data'!E20</f>
-        <v>2000</v>
+        <f t="shared" si="1"/>
+        <v>1750</v>
       </c>
       <c r="H20" s="6">
-        <f>G20</f>
-        <v>2000</v>
+        <f t="shared" si="2"/>
+        <v>1750</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
@@ -8334,8 +8243,8 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="6">
-        <v>1.5</v>
+      <c r="K20" s="22">
+        <v>5.7</v>
       </c>
       <c r="L20" s="6">
         <v>0</v>
@@ -8344,10 +8253,12 @@
         <v>0</v>
       </c>
       <c r="N20" s="6">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>15000</v>
       </c>
       <c r="O20" s="6">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5750</v>
       </c>
       <c r="P20" s="6">
         <v>0</v>
@@ -8362,196 +8273,8 @@
         <v>0</v>
       </c>
       <c r="T20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="6">
-        <v>31</v>
-      </c>
-      <c r="D21" s="6">
-        <v>8</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F21" s="6">
-        <v>10</v>
-      </c>
-      <c r="G21" s="6">
-        <f>'Generator data'!E21</f>
-        <v>2000</v>
-      </c>
-      <c r="H21" s="6">
-        <f>G21</f>
-        <v>2000</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="6">
-        <v>25</v>
-      </c>
-      <c r="D22" s="6">
-        <v>8</v>
-      </c>
-      <c r="E22" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F22" s="6">
-        <v>10</v>
-      </c>
-      <c r="G22" s="6">
-        <f>'Generator data'!E22</f>
-        <v>2000</v>
-      </c>
-      <c r="H22" s="6">
-        <f>G22</f>
-        <v>2000</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6">
-        <v>0</v>
-      </c>
-      <c r="T22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="6:8">
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="6:8">
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="6:8">
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="6:8">
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="6:8">
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="6:8">
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
+        <v>2.2999999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
